--- a/Manual testing/Project/HLR.xlsx
+++ b/Manual testing/Project/HLR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Test Sr no.</t>
   </si>
@@ -25,66 +25,228 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Elements</t>
-  </si>
-  <si>
-    <t>Contains web elements like text boxes, checkboxes, radio buttons, web tables, buttons, links, and dynamic elements for user interaction testing.</t>
-  </si>
-  <si>
-    <t>Forms</t>
-  </si>
-  <si>
-    <t>Allows users to test form submissions, including filling out forms, validating input fields, and submitting data.</t>
-  </si>
-  <si>
-    <t>Alerts, Frames &amp; Windows</t>
-  </si>
-  <si>
-    <t>Provides testing for browser alerts, modal dialogs, frames, and multiple windows handling.</t>
-  </si>
-  <si>
-    <t>Widgets</t>
-  </si>
-  <si>
-    <t>Includes various UI widgets like accordions, auto-complete, date pickers, progress bars, and sliders for user interaction testing.</t>
-  </si>
-  <si>
-    <t>Interactions</t>
-  </si>
-  <si>
-    <t>Enables testing of drag-and-drop, sortable lists, resizable elements, and selectable items.</t>
-  </si>
-  <si>
-    <t>Book Store Application</t>
-  </si>
-  <si>
-    <t>A sample book store where users can search, view, and interact with books, validating API requests and authentication features.</t>
+    <t>#Elements</t>
+  </si>
+  <si>
+    <t>Text Box</t>
+  </si>
+  <si>
+    <t>Allows users to input text in a single-line field.</t>
+  </si>
+  <si>
+    <t>Check Box</t>
+  </si>
+  <si>
+    <t>Enables users to select one or more options from a set.</t>
+  </si>
+  <si>
+    <t>Radio Button</t>
+  </si>
+  <si>
+    <t>Allows users to select one option from a set of choices.</t>
+  </si>
+  <si>
+    <t>Web Tables</t>
+  </si>
+  <si>
+    <t>Displays data in a tabular format for easy viewing.</t>
+  </si>
+  <si>
+    <t>Buttons</t>
+  </si>
+  <si>
+    <t>Interactive elements that trigger actions when clicked.</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>Hyperlinks that navigate to other pages or sections.</t>
+  </si>
+  <si>
+    <t>Broken Links - Images</t>
+  </si>
+  <si>
+    <t>Checks for images that do not load properly.</t>
+  </si>
+  <si>
+    <t>Upload and Download</t>
+  </si>
+  <si>
+    <t>Functionality to upload files and download resources.</t>
+  </si>
+  <si>
+    <t>Dynamic Properties</t>
+  </si>
+  <si>
+    <t>Elements that change properties dynamically based on user interaction.</t>
+  </si>
+  <si>
+    <t>#Forms</t>
+  </si>
+  <si>
+    <t>Practice Form</t>
+  </si>
+  <si>
+    <t>A form for users to practice filling out various fields.</t>
+  </si>
+  <si>
+    <t>#Alerts, Frame &amp; Windows</t>
+  </si>
+  <si>
+    <t>Browser Windows</t>
+  </si>
+  <si>
+    <t>Functionality to open new browser windows or tabs.</t>
+  </si>
+  <si>
+    <t>Alerts</t>
+  </si>
+  <si>
+    <t>Pop-up messages that provide information or warnings.</t>
+  </si>
+  <si>
+    <t>Frames</t>
+  </si>
+  <si>
+    <t>Sections of a webpage that can contain other HTML documents.</t>
+  </si>
+  <si>
+    <t>Nested Frames</t>
+  </si>
+  <si>
+    <t>Frames within frames, allowing for complex layouts.</t>
+  </si>
+  <si>
+    <t>Modal Dialogs</t>
+  </si>
+  <si>
+    <t>Pop-up dialogs that require user interaction before proceeding.</t>
+  </si>
+  <si>
+    <t>#Widgets</t>
+  </si>
+  <si>
+    <t>Accordion</t>
+  </si>
+  <si>
+    <t>A component that expands and collapses to show or hide content.</t>
+  </si>
+  <si>
+    <t>Auto Complete</t>
+  </si>
+  <si>
+    <t>Suggests options as the user types in a field.</t>
+  </si>
+  <si>
+    <t>Date Picker</t>
+  </si>
+  <si>
+    <t>A widget that allows users to select dates from a calendar.</t>
+  </si>
+  <si>
+    <t>Slider</t>
+  </si>
+  <si>
+    <t>A control for selecting a value from a range by sliding a handle.</t>
+  </si>
+  <si>
+    <t>Progress Bar</t>
+  </si>
+  <si>
+    <t>Visual indicator of the progress of a task.</t>
+  </si>
+  <si>
+    <t>Tabs</t>
+  </si>
+  <si>
+    <t>Navigation elements that allow switching between different views.</t>
+  </si>
+  <si>
+    <t>Tool Tips</t>
+  </si>
+  <si>
+    <t>Small pop-up boxes that provide additional information on hover.</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>A list of options or commands presented to the user.</t>
+  </si>
+  <si>
+    <t>Select Menu</t>
+  </si>
+  <si>
+    <t>A dropdown menu that allows users to select one option from a list.</t>
+  </si>
+  <si>
+    <t>Sortable</t>
+  </si>
+  <si>
+    <t>A feature that allows users to sort items in a list.</t>
+  </si>
+  <si>
+    <t>Selectable</t>
+  </si>
+  <si>
+    <t>Items that can be selected by the user.</t>
+  </si>
+  <si>
+    <t>Resizable</t>
+  </si>
+  <si>
+    <t>Elements that can be resized by the user.</t>
+  </si>
+  <si>
+    <t>Droppable</t>
+  </si>
+  <si>
+    <t>Areas where items can be dropped after being dragged.</t>
+  </si>
+  <si>
+    <t>Draggable</t>
+  </si>
+  <si>
+    <t>Items that can be moved by dragging.</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Functionality for users to enter credentials to access a system.</t>
+  </si>
+  <si>
+    <t>Book Store</t>
+  </si>
+  <si>
+    <t>A section for browsing and purchasing books.</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>User profile management and display.</t>
+  </si>
+  <si>
+    <t>Book Store API</t>
+  </si>
+  <si>
+    <t>API functionality for interacting with the book store.</t>
+  </si>
+  <si>
+    <t>#Interactions</t>
+  </si>
+  <si>
+    <t>#Book Store Application</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="8">
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -100,6 +262,38 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF09090B"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -124,26 +318,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,140 +552,464 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.42578125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="12.75">
-      <c r="A2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" ht="47.25">
-      <c r="A3" s="1">
+    <row r="2" spans="1:3" s="7" customFormat="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" s="7" customFormat="1">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="7" customFormat="1">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="7" customFormat="1">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="7" customFormat="1">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="31.5">
-      <c r="A4" s="1">
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="7" customFormat="1">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="7" customFormat="1">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="7" customFormat="1">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="7" customFormat="1">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="7" customFormat="1">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="7" customFormat="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" s="7" customFormat="1">
+      <c r="A13" s="8"/>
+      <c r="B13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" s="7" customFormat="1">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="7" customFormat="1">
+      <c r="A15" s="8"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" s="7" customFormat="1">
+      <c r="A16" s="8"/>
+      <c r="B16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" s="7" customFormat="1">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="7" customFormat="1">
+      <c r="A18" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="7" customFormat="1">
+      <c r="A19" s="3">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A20" s="3">
+        <v>4</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A21" s="3">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A24" s="3">
+        <v>1</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A25" s="3">
+        <v>2</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A26" s="3">
+        <v>3</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A27" s="3">
+        <v>4</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A28" s="3">
+        <v>5</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A29" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="31.5">
-      <c r="A5" s="1">
+      <c r="B29" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A30" s="3">
+        <v>7</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A31" s="3">
+        <v>8</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A32" s="3">
+        <v>9</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+    </row>
+    <row r="34" spans="1:3" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="9"/>
+    </row>
+    <row r="35" spans="1:3" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A35" s="3">
+        <v>1</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A36" s="3">
+        <v>2</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A37" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="47.25">
-      <c r="A6" s="1">
+      <c r="B37" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A38" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="31.5">
-      <c r="A7" s="1">
+      <c r="B38" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A39" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="47.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="12.75">
-      <c r="A9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" ht="12.75">
-      <c r="A10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" ht="12.75">
-      <c r="A11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" ht="12.75">
-      <c r="A12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" ht="12.75">
-      <c r="A13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" ht="12.75">
-      <c r="A14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" ht="12.75">
-      <c r="A15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" ht="12.75">
-      <c r="A16" s="6"/>
-    </row>
-    <row r="17" spans="1:1" ht="12.75">
-      <c r="A17" s="6"/>
-    </row>
-    <row r="18" spans="1:1" ht="12.75">
-      <c r="A18" s="6"/>
-    </row>
-    <row r="19" spans="1:1" ht="12.75">
-      <c r="A19" s="6"/>
-    </row>
-    <row r="20" spans="1:1" ht="12.75">
-      <c r="A20" s="6"/>
-    </row>
-    <row r="21" spans="1:1" ht="12.75">
-      <c r="A21" s="6"/>
-    </row>
-    <row r="22" spans="1:1" ht="12.75">
-      <c r="A22" s="6"/>
+      <c r="B39" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+    </row>
+    <row r="41" spans="1:3" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A41" s="9"/>
+      <c r="B41" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="9"/>
+    </row>
+    <row r="42" spans="1:3" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A42" s="3">
+        <v>1</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A43" s="3">
+        <v>2</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A44" s="3">
+        <v>3</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A45" s="3">
+        <v>4</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
